--- a/GPS Data North.xlsx
+++ b/GPS Data North.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidburgstahler/Documents/CAES/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="60" windowWidth="15780" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Building</t>
   </si>
@@ -102,13 +97,43 @@
   </si>
   <si>
     <t>Radius</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>balch_full</t>
+  </si>
+  <si>
+    <t>ckb</t>
+  </si>
+  <si>
+    <t>donlon</t>
+  </si>
+  <si>
+    <t>helen_newman</t>
+  </si>
+  <si>
+    <t>mews</t>
+  </si>
+  <si>
+    <t>nameless_building_blues</t>
+  </si>
+  <si>
+    <t>north_dining</t>
+  </si>
+  <si>
+    <t>north_guitar</t>
+  </si>
+  <si>
+    <t>program_house</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,8 +149,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +204,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBA00C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5E5C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,13 +271,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +381,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,21 +566,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="4.1640625" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="15" max="15" width="21.83203125" customWidth="1"/>
+    <col min="16" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -492,11 +613,39 @@
       <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2">
@@ -521,9 +670,39 @@
         <f>SQRT((F2-D2)^2+(G2-E2)^2)/2</f>
         <v>4.748629930104035E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -548,9 +727,39 @@
         <f t="shared" ref="H3:H16" si="0">SQRT((F3-D3)^2+(G3-E3)^2)/2</f>
         <v>4.8134722860100371E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="I3" s="16">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -575,9 +784,39 @@
         <f t="shared" si="0"/>
         <v>2.349542520503861E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B5">
@@ -602,9 +841,39 @@
         <f t="shared" si="0"/>
         <v>1.8696892604413721E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B6">
@@ -629,9 +898,39 @@
         <f t="shared" si="0"/>
         <v>5.6045054934831639E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B7">
@@ -656,9 +955,39 @@
         <f t="shared" si="0"/>
         <v>3.3436526398709189E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B8">
@@ -683,9 +1012,39 @@
         <f t="shared" si="0"/>
         <v>2.7405235084219525E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B9">
@@ -710,9 +1069,39 @@
         <f t="shared" si="0"/>
         <v>4.0709473974947434E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B10">
@@ -737,9 +1126,39 @@
         <f t="shared" si="0"/>
         <v>5.1900838767336981E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B11">
@@ -764,9 +1183,39 @@
         <f t="shared" si="0"/>
         <v>3.5464315120519715E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B12">
@@ -791,9 +1240,39 @@
         <f t="shared" si="0"/>
         <v>1.8641603570612359E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B13">
@@ -818,9 +1297,39 @@
         <f t="shared" si="0"/>
         <v>1.9910540974007039E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B14">
@@ -845,9 +1354,39 @@
         <f t="shared" si="0"/>
         <v>3.1695297242101254E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B15">
@@ -872,9 +1411,39 @@
         <f t="shared" si="0"/>
         <v>2.6680963782338039E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0.6</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -899,9 +1468,39 @@
         <f t="shared" si="0"/>
         <v>3.0154734249470327E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="R16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B17">
@@ -926,9 +1525,39 @@
         <f>SQRT((F17-D17)^2+(G17-E17)^2)/2</f>
         <v>3.246494188250257E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="R17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B18">
@@ -953,9 +1582,39 @@
         <f>SQRT((F18-D18)^2+(G18-E18)^2)/2</f>
         <v>2.7499801810812469E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="R18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B19">
@@ -980,8 +1639,43 @@
         <f>SQRT((F19-D19)^2+(G19-E19)^2)/2</f>
         <v>1.6462132177998232E-4</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>